--- a/NewGantt.xlsx
+++ b/NewGantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkans\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edog3\OneDrive\Documents\A School Spring 2022\Project Lab\Project Lab 1\project-lab-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889F0D49-B82A-4B2B-8058-44F2A33B77C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056FAAE6-8097-40E1-9169-202DD230630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -785,12 +785,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -819,6 +813,12 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Calculation" xfId="13" builtinId="22"/>
@@ -2169,23 +2169,23 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2426,13 +2426,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2444,7 +2444,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2462,7 +2462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2481,7 +2481,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2500,7 +2500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2519,7 +2519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2607,13 +2607,13 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2636,7 +2636,7 @@
         <v>986.13900000000012</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2649,109 +2649,109 @@
         <v>2779.1190000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2771,21 +2771,21 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
         <v>26</v>
@@ -2794,7 +2794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -2860,139 +2860,139 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I2" sqref="I2:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="41">
         <v>1</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="41">
         <v>2</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="41">
         <v>3</v>
       </c>
-      <c r="E1" s="44">
+      <c r="E1" s="42">
         <v>4</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="46"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="48"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="49"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="50"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I8" s="40" t="s">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="39" t="s">
         <v>49</v>
       </c>
     </row>
